--- a/test/full_allocation_test.xlsx
+++ b/test/full_allocation_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDE377CB-8263-2647-A7E7-C2CB74501FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BBBEEB-0391-7940-9A99-AE092EEEA505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9740" yWindow="2680" windowWidth="22920" windowHeight="13860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Funding A</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>new pipetter</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -461,10 +461,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>45689</v>
@@ -478,10 +478,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>45718</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>45843</v>
@@ -512,10 +512,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>45781</v>
@@ -538,7 +538,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>400</v>
@@ -589,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>10000</v>
@@ -606,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3000</v>
@@ -623,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -640,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>300</v>
